--- a/data/league_data/spain/20/spain_shooting.xlsx
+++ b/data/league_data/spain/20/spain_shooting.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31ABF9E2-8D08-A74E-9C6B-75EA8AF01D19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62B9F48-7543-DB45-9D10-69E75898815C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="589">
   <si>
     <t>Rk</t>
   </si>
@@ -1781,12 +1781,18 @@
   </si>
   <si>
     <t>Manuel Garrido</t>
+  </si>
+  <si>
+    <t>Nacho Iglesias</t>
+  </si>
+  <si>
+    <t>Raúl García Escudero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2644,14 +2650,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
@@ -2679,7 +2685,7 @@
     <col min="25" max="25" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2756,7 +2762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2823,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2890,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2967,7 +2973,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3044,7 +3050,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3121,7 +3127,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3198,7 +3204,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3265,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3332,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3399,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3466,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3543,7 +3549,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3620,7 +3626,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3697,7 +3703,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3774,7 +3780,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3841,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3908,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3985,7 +3991,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4062,7 +4068,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4139,7 +4145,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4216,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4293,7 +4299,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4370,7 +4376,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4447,7 +4453,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4524,7 +4530,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4601,7 +4607,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4668,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4745,7 +4751,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4822,7 +4828,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4899,7 +4905,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4976,7 +4982,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5051,7 +5057,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5128,7 +5134,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5205,7 +5211,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5282,7 +5288,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5349,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5426,7 +5432,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5503,7 +5509,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5580,7 +5586,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5647,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5724,7 +5730,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5801,7 +5807,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5868,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5945,7 +5951,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6022,7 +6028,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6099,7 +6105,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6166,7 +6172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6243,7 +6249,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6320,7 +6326,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6397,12 +6403,12 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>115</v>
+        <v>588</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>26</v>
@@ -6474,7 +6480,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6551,7 +6557,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6628,7 +6634,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6705,7 +6711,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6782,7 +6788,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6859,7 +6865,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6936,7 +6942,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -7013,7 +7019,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -7090,7 +7096,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -7167,7 +7173,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -7244,7 +7250,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -7321,7 +7327,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -7398,7 +7404,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -7475,7 +7481,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -7552,7 +7558,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -7629,7 +7635,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -7706,7 +7712,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -7783,7 +7789,7 @@
         <v>-2.2999999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -7860,7 +7866,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -7937,7 +7943,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -8014,7 +8020,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="72" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -8091,7 +8097,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -8168,7 +8174,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -8245,7 +8251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -8322,7 +8328,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -8399,7 +8405,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -8476,7 +8482,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -8553,7 +8559,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -8630,7 +8636,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -8707,7 +8713,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -8784,7 +8790,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -8861,7 +8867,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -8938,7 +8944,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="84" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -9015,7 +9021,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="85" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -9092,7 +9098,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -9169,7 +9175,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -9246,7 +9252,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -9323,7 +9329,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -9400,7 +9406,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="90" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -9477,7 +9483,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -9554,7 +9560,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -9631,7 +9637,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -9708,7 +9714,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="94" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -9785,7 +9791,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="95" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -9862,7 +9868,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -9939,7 +9945,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="97" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -10016,7 +10022,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="98" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -10093,7 +10099,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="99" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -10170,7 +10176,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -10247,7 +10253,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="101" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -10324,7 +10330,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="102" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -10391,7 +10397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -10468,7 +10474,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="104" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -10545,7 +10551,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -10622,7 +10628,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="106" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -10699,7 +10705,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="107" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -10776,7 +10782,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="108" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -10853,7 +10859,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="109" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -10930,7 +10936,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -11007,7 +11013,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="111" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -11084,7 +11090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -11161,7 +11167,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="113" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -11238,7 +11244,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="114" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -11315,7 +11321,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="115" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -11382,7 +11388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -11459,7 +11465,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="117" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -11536,7 +11542,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -11613,7 +11619,7 @@
         <v>-2.8</v>
       </c>
     </row>
-    <row r="119" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -11690,7 +11696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -11767,7 +11773,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="121" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -11844,7 +11850,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="122" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -11921,7 +11927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -11998,7 +12004,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="124" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -12075,7 +12081,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="125" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -12152,7 +12158,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="126" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -12229,7 +12235,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="127" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -12306,7 +12312,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="128" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -12383,7 +12389,7 @@
         <v>-2.2999999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -12460,7 +12466,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="130" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -12537,7 +12543,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="131" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -12614,7 +12620,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="132" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -12689,7 +12695,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="133" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -12766,7 +12772,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="134" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -12843,7 +12849,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="135" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -12918,7 +12924,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="136" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -12995,7 +13001,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -13072,7 +13078,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="138" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -13149,7 +13155,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="139" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -13226,7 +13232,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="140" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -13303,7 +13309,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="141" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -13380,7 +13386,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="142" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -13457,7 +13463,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="143" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -13534,7 +13540,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="144" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -13611,7 +13617,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="145" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -13688,7 +13694,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="146" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -13765,7 +13771,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="147" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -13842,7 +13848,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="148" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -13919,7 +13925,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="149" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -13996,7 +14002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -14073,7 +14079,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="151" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -14150,7 +14156,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="152" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -14227,7 +14233,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="153" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -14294,7 +14300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -14371,7 +14377,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="155" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -14448,7 +14454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -14525,7 +14531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -14602,7 +14608,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="158" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -14679,7 +14685,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="159" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -14756,7 +14762,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="160" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -14833,7 +14839,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="161" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -14910,7 +14916,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="162" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -14987,7 +14993,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="163" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -15064,7 +15070,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="164" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -15141,7 +15147,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="165" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -15218,7 +15224,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="166" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -15295,7 +15301,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="167" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -15370,7 +15376,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="168" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -15447,7 +15453,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="169" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -15524,7 +15530,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="170" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -15601,7 +15607,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="171" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -15678,7 +15684,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="172" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -15755,7 +15761,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="173" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -15830,7 +15836,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="174" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -15907,7 +15913,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="175" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -15984,7 +15990,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="176" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -16061,7 +16067,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="177" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -16138,7 +16144,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="178" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -16215,7 +16221,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="179" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -16292,7 +16298,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="180" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -16369,7 +16375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -16446,7 +16452,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="182" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -16523,7 +16529,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="183" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -16600,7 +16606,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="184" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -16677,7 +16683,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="185" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -16754,7 +16760,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="186" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -16831,7 +16837,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="187" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -16908,7 +16914,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="188" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -16985,7 +16991,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="189" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -17062,7 +17068,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="190" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -17139,7 +17145,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="191" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -17216,7 +17222,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="192" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -17293,7 +17299,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="193" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -17370,7 +17376,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="194" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -17447,7 +17453,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="195" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -17524,7 +17530,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="196" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -17601,7 +17607,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="197" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -17678,7 +17684,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="198" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -17755,7 +17761,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="199" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -17832,7 +17838,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="200" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -17909,7 +17915,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="201" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -17986,7 +17992,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="202" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -18063,7 +18069,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="203" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -18140,7 +18146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -18217,7 +18223,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="205" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -18294,7 +18300,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="206" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -18371,7 +18377,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="207" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -18448,7 +18454,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="208" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -18525,7 +18531,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="209" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -18602,7 +18608,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="210" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -18679,7 +18685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -18756,7 +18762,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="212" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -18833,7 +18839,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="213" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -18910,7 +18916,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="214" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -18987,7 +18993,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="215" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -19064,7 +19070,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="216" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -19141,7 +19147,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="217" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -19218,7 +19224,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="218" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -19285,7 +19291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -19362,7 +19368,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="220" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -19439,7 +19445,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="221" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -19516,7 +19522,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="222" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -19593,7 +19599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -19670,7 +19676,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -19745,7 +19751,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="225" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -19822,7 +19828,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="226" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -19899,7 +19905,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="227" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -19966,7 +19972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -20043,7 +20049,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="229" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -20120,7 +20126,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="230" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -20197,7 +20203,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="231" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -20274,7 +20280,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="232" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -20351,7 +20357,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="233" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -20428,7 +20434,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -20503,7 +20509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -20580,7 +20586,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="236" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -20657,7 +20663,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="237" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -20732,7 +20738,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="238" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -20809,7 +20815,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="239" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -20886,7 +20892,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="240" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -20963,7 +20969,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="241" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -21040,7 +21046,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="242" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -21117,7 +21123,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="243" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -21194,7 +21200,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="244" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -21271,7 +21277,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="245" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -21348,7 +21354,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="246" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -21425,7 +21431,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="247" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -21502,7 +21508,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="248" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -21579,7 +21585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -21656,7 +21662,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="250" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -21733,7 +21739,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="251" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -21810,7 +21816,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="252" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -21887,7 +21893,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="253" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -21964,7 +21970,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="254" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -22041,7 +22047,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="255" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -22118,7 +22124,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="256" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -22195,7 +22201,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="257" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -22270,7 +22276,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="258" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -22347,7 +22353,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="259" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -22424,7 +22430,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="260" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -22501,7 +22507,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -22578,7 +22584,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="262" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -22655,7 +22661,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="263" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -22732,7 +22738,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="264" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -22809,7 +22815,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="265" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -22886,7 +22892,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="266" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -22963,7 +22969,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="267" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -23038,7 +23044,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="268" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -23105,7 +23111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -23180,7 +23186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -23257,7 +23263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -23334,7 +23340,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="272" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -23411,7 +23417,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="273" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -23488,7 +23494,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="274" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -23565,7 +23571,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="275" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -23642,7 +23648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -23719,7 +23725,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="277" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -23796,7 +23802,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="278" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -23873,7 +23879,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="279" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -23950,7 +23956,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="280" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -24027,7 +24033,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="281" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -24104,7 +24110,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="282" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -24181,7 +24187,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="283" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -24258,7 +24264,7 @@
         <v>-3.7</v>
       </c>
     </row>
-    <row r="284" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -24335,7 +24341,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="285" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -24412,7 +24418,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="286" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -24489,7 +24495,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="287" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -24566,7 +24572,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="288" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -24641,7 +24647,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="289" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -24718,7 +24724,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="290" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -24795,7 +24801,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="291" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -24872,7 +24878,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="292" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -24949,7 +24955,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="293" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -25016,7 +25022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -25093,7 +25099,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="295" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -25170,7 +25176,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="296" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -25245,7 +25251,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="297" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -25322,7 +25328,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="298" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -25399,7 +25405,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="299" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -25476,7 +25482,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="300" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -25551,7 +25557,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="301" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -25628,7 +25634,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="302" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -25705,7 +25711,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="303" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -25782,7 +25788,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="304" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -25859,7 +25865,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="305" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -25936,7 +25942,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="306" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -26013,7 +26019,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="307" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -26090,7 +26096,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="308" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -26167,7 +26173,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="309" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -26234,7 +26240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -26309,7 +26315,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="311" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -26386,7 +26392,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="312" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -26463,7 +26469,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="313" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -26540,7 +26546,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="314" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -26617,7 +26623,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="315" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -26694,7 +26700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -26771,7 +26777,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="317" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -26848,7 +26854,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="318" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -26925,7 +26931,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="319" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -27002,7 +27008,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="320" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -27079,7 +27085,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="321" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -27146,7 +27152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -27223,7 +27229,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="323" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -27298,7 +27304,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="324" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -27375,7 +27381,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="325" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -27442,7 +27448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -27517,7 +27523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -27594,7 +27600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -27671,7 +27677,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="329" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -27748,7 +27754,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="330" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -27825,7 +27831,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="331" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -27902,7 +27908,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="332" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -27979,7 +27985,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="333" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -28056,7 +28062,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="334" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -28133,7 +28139,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="335" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -28210,7 +28216,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="336" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -28287,7 +28293,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="337" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -28364,7 +28370,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="338" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -28441,7 +28447,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="339" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -28518,7 +28524,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="340" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -28595,7 +28601,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="341" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -28672,7 +28678,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="342" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -28747,7 +28753,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="343" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -28822,7 +28828,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="344" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -28899,7 +28905,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="345" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -28976,7 +28982,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="346" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -29051,7 +29057,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="347" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -29128,7 +29134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -29205,7 +29211,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="349" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -29282,7 +29288,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="350" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -29359,7 +29365,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="351" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -29434,7 +29440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -29509,7 +29515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -29586,7 +29592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -29663,7 +29669,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="355" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -29738,7 +29744,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="356" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -29815,7 +29821,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="357" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -29892,7 +29898,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="358" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -29969,7 +29975,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="359" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -30046,7 +30052,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="360" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -30121,7 +30127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -30198,7 +30204,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="362" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -30273,7 +30279,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="363" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -30348,7 +30354,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="364" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -30425,7 +30431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -30492,7 +30498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -30569,7 +30575,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="367" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -30646,7 +30652,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="368" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -30723,7 +30729,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="369" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -30800,7 +30806,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="370" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -30877,7 +30883,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="371" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -30954,7 +30960,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="372" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -31029,7 +31035,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="373" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -31106,7 +31112,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="374" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -31181,7 +31187,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="375" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -31258,7 +31264,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="376" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -31333,7 +31339,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="377" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -31408,7 +31414,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="378" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -31483,7 +31489,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="379" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -31560,7 +31566,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="380" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -31637,7 +31643,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="381" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -31714,7 +31720,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="382" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -31791,7 +31797,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="383" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -31866,7 +31872,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="384" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -31943,7 +31949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -32020,7 +32026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -32097,7 +32103,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="387" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -32174,7 +32180,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="388" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -32249,7 +32255,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="389" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -32326,7 +32332,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="390" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -32393,7 +32399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -32470,7 +32476,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="392" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -32545,7 +32551,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="393" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -32622,7 +32628,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="394" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -32689,7 +32695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -32756,7 +32762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -32831,7 +32837,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="397" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -32908,7 +32914,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="398" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -32985,7 +32991,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="399" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -33060,7 +33066,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="400" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -33137,7 +33143,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="401" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -33214,7 +33220,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="402" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -33291,7 +33297,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="403" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -33368,7 +33374,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="404" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -33443,7 +33449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -33520,7 +33526,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="406" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -33597,7 +33603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -33672,7 +33678,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="408" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -33749,7 +33755,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="409" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -33826,7 +33832,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="410" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -33903,12 +33909,12 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="411" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>278</v>
+        <v>587</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>26</v>
@@ -33980,7 +33986,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="412" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -34057,7 +34063,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="413" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -34124,7 +34130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -34191,7 +34197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -34268,7 +34274,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="416" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -34345,7 +34351,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="417" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -34422,7 +34428,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="418" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -34499,7 +34505,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="419" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -34576,7 +34582,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="420" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -34653,7 +34659,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="421" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -34730,7 +34736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -34807,7 +34813,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="423" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -34884,7 +34890,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="424" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -34951,7 +34957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -35028,7 +35034,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="426" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -35095,7 +35101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -35172,7 +35178,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="428" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -35249,7 +35255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -35316,7 +35322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -35393,7 +35399,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="431" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -35470,7 +35476,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="432" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -35537,7 +35543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -35614,7 +35620,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="434" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -35689,7 +35695,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="435" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -35764,7 +35770,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="436" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -35841,7 +35847,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="437" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -35918,7 +35924,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="438" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -35995,7 +36001,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="439" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -36072,7 +36078,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="440" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -36139,7 +36145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -36216,7 +36222,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="442" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -36291,7 +36297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -36366,7 +36372,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="444" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -36441,7 +36447,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="445" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -36518,7 +36524,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="446" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -36585,7 +36591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -36660,7 +36666,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="448" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -36737,7 +36743,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="449" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -36804,7 +36810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -36871,7 +36877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -36938,7 +36944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -37013,7 +37019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -37090,7 +37096,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="454" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -37157,7 +37163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -37234,7 +37240,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="456" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -37311,7 +37317,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="457" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -37378,7 +37384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -37445,7 +37451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -37512,7 +37518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -37579,7 +37585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -37656,7 +37662,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="462" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -37731,7 +37737,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="463" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -37806,7 +37812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -37883,7 +37889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -37950,7 +37956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -38027,7 +38033,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="467" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -38102,7 +38108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -38177,7 +38183,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="469" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -38254,7 +38260,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="470" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -38331,7 +38337,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="471" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -38406,7 +38412,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="472" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -38483,7 +38489,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="473" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -38558,7 +38564,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="474" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -38633,7 +38639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -38708,7 +38714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -38785,7 +38791,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="477" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -38852,7 +38858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -38919,7 +38925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -38996,7 +39002,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="480" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -39071,7 +39077,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="481" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -39148,7 +39154,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="482" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -39215,7 +39221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -39282,7 +39288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -39349,7 +39355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -39416,7 +39422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -39493,7 +39499,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="487" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -39560,7 +39566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -39637,7 +39643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -39704,7 +39710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -39781,7 +39787,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="491" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -39856,7 +39862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -39931,7 +39937,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="493" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -40008,7 +40014,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="494" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -40075,7 +40081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -40152,7 +40158,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="496" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -40219,7 +40225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -40296,7 +40302,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="498" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -40363,7 +40369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -40430,7 +40436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -40507,7 +40513,6 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="501" spans="1:25" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/spain/20/spain_shooting.xlsx
+++ b/data/league_data/spain/20/spain_shooting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62B9F48-7543-DB45-9D10-69E75898815C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB35181-49A0-164D-BBF2-AE7BBA478F2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="590">
   <si>
     <t>Rk</t>
   </si>
@@ -1093,9 +1093,6 @@
     <t>Tomás Pina Isla</t>
   </si>
   <si>
-    <t>Naldo</t>
-  </si>
-  <si>
     <t>Jaume Doménech</t>
   </si>
   <si>
@@ -1787,6 +1784,12 @@
   </si>
   <si>
     <t>Raúl García Escudero</t>
+  </si>
+  <si>
+    <t>Sergio Álvarez Diaz</t>
+  </si>
+  <si>
+    <t>Naldo Gomes</t>
   </si>
 </sst>
 </file>
@@ -2653,8 +2656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="B267" sqref="B267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6408,7 +6411,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>26</v>
@@ -22974,7 +22977,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>357</v>
+        <v>589</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>74</v>
@@ -23049,7 +23052,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>26</v>
@@ -23116,7 +23119,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>26</v>
@@ -23191,7 +23194,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>74</v>
@@ -23268,7 +23271,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>26</v>
@@ -23345,7 +23348,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>26</v>
@@ -23422,7 +23425,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>74</v>
@@ -23499,7 +23502,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>106</v>
@@ -23576,7 +23579,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>113</v>
@@ -23653,7 +23656,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>64</v>
@@ -23730,7 +23733,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>26</v>
@@ -23807,7 +23810,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>26</v>
@@ -23884,7 +23887,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>342</v>
@@ -23961,7 +23964,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>26</v>
@@ -24038,13 +24041,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E281" s="3" t="s">
         <v>125</v>
@@ -24115,7 +24118,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>26</v>
@@ -24192,7 +24195,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>113</v>
@@ -24269,7 +24272,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>59</v>
@@ -24346,7 +24349,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>26</v>
@@ -24423,7 +24426,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>26</v>
@@ -24500,7 +24503,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>113</v>
@@ -24577,7 +24580,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>26</v>
@@ -24652,7 +24655,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>26</v>
@@ -24729,7 +24732,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>26</v>
@@ -24806,7 +24809,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>74</v>
@@ -24883,7 +24886,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>74</v>
@@ -24960,7 +24963,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>26</v>
@@ -25027,7 +25030,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>82</v>
@@ -25104,7 +25107,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>26</v>
@@ -25181,7 +25184,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>387</v>
+        <v>588</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>26</v>
@@ -25256,7 +25259,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>109</v>
@@ -25333,7 +25336,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>113</v>
@@ -25410,7 +25413,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>67</v>
@@ -25487,7 +25490,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>26</v>
@@ -25562,7 +25565,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>113</v>
@@ -25639,10 +25642,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C302" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>394</v>
       </c>
       <c r="D302" s="3" t="s">
         <v>86</v>
@@ -25716,7 +25719,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>26</v>
@@ -25793,7 +25796,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>26</v>
@@ -25870,7 +25873,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>207</v>
@@ -25947,7 +25950,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>82</v>
@@ -26024,7 +26027,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>26</v>
@@ -26101,7 +26104,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>26</v>
@@ -26178,7 +26181,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>26</v>
@@ -26245,7 +26248,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>26</v>
@@ -26320,13 +26323,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E311" s="3" t="s">
         <v>48</v>
@@ -26397,7 +26400,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>74</v>
@@ -26474,7 +26477,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>113</v>
@@ -26551,7 +26554,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>26</v>
@@ -26628,7 +26631,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>26</v>
@@ -26705,7 +26708,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>74</v>
@@ -26859,7 +26862,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>26</v>
@@ -26936,7 +26939,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>26</v>
@@ -27013,7 +27016,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>154</v>
@@ -27090,7 +27093,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>26</v>
@@ -27157,7 +27160,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>26</v>
@@ -27234,7 +27237,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>26</v>
@@ -27309,7 +27312,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>26</v>
@@ -27386,7 +27389,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>67</v>
@@ -27453,7 +27456,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>26</v>
@@ -27528,7 +27531,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>113</v>
@@ -27605,7 +27608,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>26</v>
@@ -27682,10 +27685,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C329" s="3" t="s">
         <v>421</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>422</v>
       </c>
       <c r="D329" s="3" t="s">
         <v>56</v>
@@ -27759,7 +27762,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>26</v>
@@ -27836,7 +27839,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>67</v>
@@ -27913,7 +27916,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>26</v>
@@ -27990,7 +27993,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>64</v>
@@ -28067,7 +28070,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>26</v>
@@ -28144,7 +28147,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>134</v>
@@ -28221,7 +28224,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>26</v>
@@ -28298,7 +28301,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>26</v>
@@ -28375,7 +28378,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>26</v>
@@ -28452,7 +28455,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>72</v>
@@ -28529,7 +28532,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>26</v>
@@ -28606,7 +28609,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>26</v>
@@ -28683,7 +28686,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>26</v>
@@ -28758,7 +28761,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>64</v>
@@ -28833,7 +28836,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>26</v>
@@ -28910,7 +28913,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>26</v>
@@ -28987,7 +28990,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>72</v>
@@ -29062,7 +29065,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>59</v>
@@ -29139,7 +29142,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>26</v>
@@ -29216,7 +29219,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>26</v>
@@ -29370,7 +29373,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>26</v>
@@ -29445,7 +29448,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>59</v>
@@ -29520,7 +29523,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>26</v>
@@ -29597,7 +29600,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>26</v>
@@ -29674,7 +29677,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>67</v>
@@ -29749,7 +29752,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>26</v>
@@ -29826,10 +29829,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C357" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>450</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>33</v>
@@ -29903,10 +29906,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>36</v>
@@ -29980,7 +29983,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>26</v>
@@ -30057,7 +30060,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>26</v>
@@ -30132,7 +30135,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>26</v>
@@ -30209,7 +30212,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>26</v>
@@ -30284,7 +30287,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>26</v>
@@ -30359,7 +30362,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>26</v>
@@ -30436,7 +30439,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>26</v>
@@ -30503,7 +30506,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>128</v>
@@ -30580,7 +30583,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>26</v>
@@ -30657,7 +30660,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>26</v>
@@ -30734,7 +30737,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>207</v>
@@ -30811,7 +30814,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>26</v>
@@ -30888,7 +30891,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>26</v>
@@ -30965,7 +30968,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>67</v>
@@ -31040,7 +31043,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>64</v>
@@ -31117,7 +31120,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>26</v>
@@ -31192,7 +31195,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>82</v>
@@ -31269,7 +31272,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>26</v>
@@ -31344,13 +31347,13 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E377" s="3" t="s">
         <v>89</v>
@@ -31419,7 +31422,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>209</v>
@@ -31494,7 +31497,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>74</v>
@@ -31571,7 +31574,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>244</v>
@@ -31648,7 +31651,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>113</v>
@@ -31725,7 +31728,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>26</v>
@@ -31802,7 +31805,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>26</v>
@@ -31877,7 +31880,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>26</v>
@@ -31954,7 +31957,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>72</v>
@@ -32031,7 +32034,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>26</v>
@@ -32108,7 +32111,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>26</v>
@@ -32185,13 +32188,13 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E388" s="3" t="s">
         <v>89</v>
@@ -32260,7 +32263,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>221</v>
@@ -32337,7 +32340,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>26</v>
@@ -32404,7 +32407,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>26</v>
@@ -32481,7 +32484,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>26</v>
@@ -32556,7 +32559,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>26</v>
@@ -32633,7 +32636,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>342</v>
@@ -32700,7 +32703,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>26</v>
@@ -32767,7 +32770,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>26</v>
@@ -32842,10 +32845,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C397" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="C397" s="3" t="s">
-        <v>491</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>33</v>
@@ -32919,7 +32922,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>26</v>
@@ -32996,7 +32999,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>26</v>
@@ -33071,7 +33074,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>26</v>
@@ -33148,7 +33151,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>26</v>
@@ -33225,7 +33228,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>26</v>
@@ -33302,7 +33305,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>26</v>
@@ -33379,7 +33382,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>26</v>
@@ -33454,7 +33457,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>26</v>
@@ -33531,10 +33534,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D406" s="3" t="s">
         <v>33</v>
@@ -33608,7 +33611,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>113</v>
@@ -33683,7 +33686,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>109</v>
@@ -33760,10 +33763,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C409" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="C409" s="3" t="s">
-        <v>504</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>56</v>
@@ -33837,7 +33840,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>26</v>
@@ -33914,7 +33917,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>26</v>
@@ -33991,7 +33994,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>59</v>
@@ -34068,7 +34071,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>64</v>
@@ -34135,7 +34138,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>26</v>
@@ -34202,7 +34205,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>207</v>
@@ -34279,7 +34282,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>26</v>
@@ -34433,7 +34436,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>26</v>
@@ -34510,7 +34513,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>342</v>
@@ -34587,7 +34590,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>26</v>
@@ -34664,7 +34667,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>26</v>
@@ -34741,7 +34744,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>26</v>
@@ -34818,7 +34821,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>26</v>
@@ -34895,13 +34898,13 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E424" s="3" t="s">
         <v>37</v>
@@ -34962,7 +34965,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>26</v>
@@ -35039,7 +35042,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>67</v>
@@ -35106,13 +35109,13 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E427" s="3" t="s">
         <v>65</v>
@@ -35183,7 +35186,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>67</v>
@@ -35260,7 +35263,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>26</v>
@@ -35327,10 +35330,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C430" s="3" t="s">
         <v>523</v>
-      </c>
-      <c r="C430" s="3" t="s">
-        <v>524</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>86</v>
@@ -35404,7 +35407,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>26</v>
@@ -35481,7 +35484,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>128</v>
@@ -35548,7 +35551,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>109</v>
@@ -35625,7 +35628,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>26</v>
@@ -35700,7 +35703,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>26</v>
@@ -35775,7 +35778,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>26</v>
@@ -35852,7 +35855,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>26</v>
@@ -35929,7 +35932,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>229</v>
@@ -36006,7 +36009,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>26</v>
@@ -36083,7 +36086,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>26</v>
@@ -36150,7 +36153,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>26</v>
@@ -36227,7 +36230,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>26</v>
@@ -36302,7 +36305,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>26</v>
@@ -36377,7 +36380,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>26</v>
@@ -36452,7 +36455,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>26</v>
@@ -36529,7 +36532,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>26</v>
@@ -36596,7 +36599,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>72</v>
@@ -36671,7 +36674,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>67</v>
@@ -36748,7 +36751,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>26</v>
@@ -36815,7 +36818,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>26</v>
@@ -36882,7 +36885,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>26</v>
@@ -36949,7 +36952,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>64</v>
@@ -37024,7 +37027,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>26</v>
@@ -37101,7 +37104,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>26</v>
@@ -37168,7 +37171,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>26</v>
@@ -37245,7 +37248,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>26</v>
@@ -37322,7 +37325,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>26</v>
@@ -37389,7 +37392,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>26</v>
@@ -37523,7 +37526,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>26</v>
@@ -37590,7 +37593,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>26</v>
@@ -37667,7 +37670,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>72</v>
@@ -37742,13 +37745,13 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E463" s="3" t="s">
         <v>65</v>
@@ -37817,7 +37820,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>26</v>
@@ -37894,7 +37897,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>26</v>
@@ -37961,7 +37964,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>207</v>
@@ -38038,7 +38041,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>26</v>
@@ -38113,7 +38116,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>26</v>
@@ -38188,7 +38191,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>26</v>
@@ -38265,7 +38268,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>26</v>
@@ -38342,7 +38345,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>113</v>
@@ -38417,7 +38420,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>74</v>
@@ -38494,7 +38497,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>154</v>
@@ -38569,7 +38572,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>26</v>
@@ -38644,7 +38647,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>342</v>
@@ -38796,7 +38799,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>26</v>
@@ -38863,7 +38866,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>26</v>
@@ -38930,7 +38933,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>26</v>
@@ -39007,7 +39010,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>342</v>
@@ -39082,7 +39085,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>26</v>
@@ -39159,7 +39162,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>26</v>
@@ -39226,7 +39229,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>74</v>
@@ -39293,7 +39296,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>26</v>
@@ -39360,7 +39363,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>26</v>
@@ -39427,7 +39430,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>26</v>
@@ -39504,7 +39507,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>26</v>
@@ -39571,7 +39574,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>26</v>
@@ -39648,7 +39651,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>26</v>
@@ -39715,7 +39718,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>26</v>
@@ -39792,7 +39795,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>67</v>
@@ -39867,7 +39870,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>74</v>
@@ -39942,7 +39945,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>26</v>
@@ -40019,10 +40022,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C494" s="3" t="s">
         <v>579</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>580</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>54</v>
@@ -40086,7 +40089,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>26</v>
@@ -40163,7 +40166,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>26</v>
@@ -40230,7 +40233,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>64</v>
@@ -40307,7 +40310,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>26</v>
@@ -40374,7 +40377,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>26</v>
@@ -40441,7 +40444,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>26</v>

--- a/data/league_data/spain/20/spain_shooting.xlsx
+++ b/data/league_data/spain/20/spain_shooting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB35181-49A0-164D-BBF2-AE7BBA478F2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1863576F-6C0B-B34F-972A-4C18D9E40CAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,9 +373,6 @@
     <t>Yuri Berchiche</t>
   </si>
   <si>
-    <t>Emerson</t>
-  </si>
-  <si>
     <t>Raphaël Varane</t>
   </si>
   <si>
@@ -1790,6 +1787,9 @@
   </si>
   <si>
     <t>Naldo Gomes</t>
+  </si>
+  <si>
+    <t>Emerson Royal</t>
   </si>
 </sst>
 </file>
@@ -2656,8 +2656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="B267" sqref="B267"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6411,7 +6411,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>26</v>
@@ -6565,7 +6565,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>117</v>
+        <v>589</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>74</v>
@@ -6642,7 +6642,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>67</v>
@@ -6719,7 +6719,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>26</v>
@@ -6796,7 +6796,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>74</v>
@@ -6873,7 +6873,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>26</v>
@@ -6950,7 +6950,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>26</v>
@@ -6959,7 +6959,7 @@
         <v>36</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F58" s="3">
         <v>29</v>
@@ -7027,7 +7027,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>113</v>
@@ -7036,7 +7036,7 @@
         <v>33</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F59" s="3">
         <v>25</v>
@@ -7104,7 +7104,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>26</v>
@@ -7181,10 +7181,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>36</v>
@@ -7258,7 +7258,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>26</v>
@@ -7335,7 +7335,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>26</v>
@@ -7412,7 +7412,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>113</v>
@@ -7489,7 +7489,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>26</v>
@@ -7566,13 +7566,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>91</v>
@@ -7643,7 +7643,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>106</v>
@@ -7720,7 +7720,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>26</v>
@@ -7797,7 +7797,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>26</v>
@@ -7874,7 +7874,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>26</v>
@@ -7883,7 +7883,7 @@
         <v>33</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F70" s="3">
         <v>27</v>
@@ -7951,7 +7951,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>26</v>
@@ -7960,7 +7960,7 @@
         <v>33</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F71" s="3">
         <v>23</v>
@@ -8028,7 +8028,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>26</v>
@@ -8105,7 +8105,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>74</v>
@@ -8182,7 +8182,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>26</v>
@@ -8259,7 +8259,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>47</v>
@@ -8336,7 +8336,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>26</v>
@@ -8345,7 +8345,7 @@
         <v>33</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F76" s="3">
         <v>29</v>
@@ -8413,7 +8413,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>26</v>
@@ -8490,7 +8490,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>67</v>
@@ -8567,7 +8567,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>26</v>
@@ -8644,10 +8644,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>33</v>
@@ -8721,7 +8721,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>64</v>
@@ -8798,7 +8798,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>72</v>
@@ -8875,10 +8875,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>54</v>
@@ -8952,10 +8952,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>33</v>
@@ -9029,7 +9029,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>26</v>
@@ -9106,7 +9106,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>26</v>
@@ -9183,7 +9183,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>67</v>
@@ -9260,7 +9260,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>106</v>
@@ -9337,7 +9337,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>26</v>
@@ -9414,10 +9414,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>54</v>
@@ -9491,13 +9491,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>57</v>
@@ -9568,7 +9568,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>26</v>
@@ -9645,7 +9645,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>26</v>
@@ -9722,7 +9722,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>106</v>
@@ -9799,7 +9799,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>26</v>
@@ -9876,7 +9876,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>26</v>
@@ -9885,7 +9885,7 @@
         <v>36</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F96" s="3">
         <v>30</v>
@@ -9953,7 +9953,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>26</v>
@@ -10030,7 +10030,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>26</v>
@@ -10107,7 +10107,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>113</v>
@@ -10184,13 +10184,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>50</v>
@@ -10261,7 +10261,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>26</v>
@@ -10338,7 +10338,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>26</v>
@@ -10347,7 +10347,7 @@
         <v>27</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F102" s="3">
         <v>35</v>
@@ -10405,7 +10405,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>26</v>
@@ -10482,7 +10482,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>67</v>
@@ -10559,13 +10559,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>28</v>
@@ -10636,7 +10636,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>67</v>
@@ -10713,7 +10713,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>74</v>
@@ -10790,7 +10790,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>26</v>
@@ -10867,10 +10867,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>56</v>
@@ -10944,7 +10944,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>26</v>
@@ -11021,7 +11021,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>26</v>
@@ -11098,7 +11098,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>26</v>
@@ -11175,10 +11175,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>54</v>
@@ -11252,7 +11252,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>26</v>
@@ -11329,7 +11329,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>26</v>
@@ -11338,7 +11338,7 @@
         <v>27</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F115" s="3">
         <v>27</v>
@@ -11396,7 +11396,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>26</v>
@@ -11473,13 +11473,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>48</v>
@@ -11550,10 +11550,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>36</v>
@@ -11627,7 +11627,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>26</v>
@@ -11704,7 +11704,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>26</v>
@@ -11781,7 +11781,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>26</v>
@@ -11858,7 +11858,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>26</v>
@@ -11935,7 +11935,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>26</v>
@@ -12012,7 +12012,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>67</v>
@@ -12089,10 +12089,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>56</v>
@@ -12166,7 +12166,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>26</v>
@@ -12243,7 +12243,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>26</v>
@@ -12320,7 +12320,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>26</v>
@@ -12397,10 +12397,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>33</v>
@@ -12474,10 +12474,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>54</v>
@@ -12551,7 +12551,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>26</v>
@@ -12628,7 +12628,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>26</v>
@@ -12703,7 +12703,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>26</v>
@@ -12780,7 +12780,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>59</v>
@@ -12857,7 +12857,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>26</v>
@@ -12932,7 +12932,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>26</v>
@@ -13009,7 +13009,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>26</v>
@@ -13086,7 +13086,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>26</v>
@@ -13095,7 +13095,7 @@
         <v>54</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F138" s="3">
         <v>30</v>
@@ -13163,7 +13163,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>26</v>
@@ -13240,7 +13240,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>26</v>
@@ -13317,10 +13317,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>56</v>
@@ -13394,7 +13394,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>26</v>
@@ -13471,7 +13471,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>26</v>
@@ -13480,7 +13480,7 @@
         <v>54</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F143" s="3">
         <v>29</v>
@@ -13548,7 +13548,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>72</v>
@@ -13625,7 +13625,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>26</v>
@@ -13702,10 +13702,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>86</v>
@@ -13779,7 +13779,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>74</v>
@@ -13788,7 +13788,7 @@
         <v>33</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F147" s="3">
         <v>25</v>
@@ -13856,10 +13856,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>54</v>
@@ -13933,10 +13933,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>54</v>
@@ -14010,7 +14010,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>74</v>
@@ -14087,7 +14087,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>74</v>
@@ -14164,7 +14164,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>26</v>
@@ -14173,7 +14173,7 @@
         <v>33</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F152" s="3">
         <v>23</v>
@@ -14241,10 +14241,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>27</v>
@@ -14308,7 +14308,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>26</v>
@@ -14385,7 +14385,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>64</v>
@@ -14462,7 +14462,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>64</v>
@@ -14539,7 +14539,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>26</v>
@@ -14616,7 +14616,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>113</v>
@@ -14693,7 +14693,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>26</v>
@@ -14770,10 +14770,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>36</v>
@@ -14847,10 +14847,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>56</v>
@@ -14924,7 +14924,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>109</v>
@@ -15001,7 +15001,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>26</v>
@@ -15078,7 +15078,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>26</v>
@@ -15087,7 +15087,7 @@
         <v>54</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F164" s="3">
         <v>30</v>
@@ -15155,7 +15155,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>26</v>
@@ -15232,7 +15232,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>74</v>
@@ -15309,16 +15309,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F167" s="3">
         <v>22</v>
@@ -15384,10 +15384,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>54</v>
@@ -15461,7 +15461,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>72</v>
@@ -15538,7 +15538,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>26</v>
@@ -15615,7 +15615,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>59</v>
@@ -15692,10 +15692,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>33</v>
@@ -15769,10 +15769,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>33</v>
@@ -15844,7 +15844,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>26</v>
@@ -15853,7 +15853,7 @@
         <v>54</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F174" s="3">
         <v>33</v>
@@ -15921,10 +15921,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>54</v>
@@ -15998,7 +15998,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>26</v>
@@ -16075,10 +16075,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>56</v>
@@ -16152,7 +16152,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>26</v>
@@ -16229,7 +16229,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>26</v>
@@ -16306,16 +16306,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F180" s="3">
         <v>28</v>
@@ -16383,16 +16383,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F181" s="3">
         <v>25</v>
@@ -16460,7 +16460,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>26</v>
@@ -16537,7 +16537,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>26</v>
@@ -16614,7 +16614,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>26</v>
@@ -16623,7 +16623,7 @@
         <v>56</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F184" s="3">
         <v>21</v>
@@ -16691,16 +16691,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F185" s="3">
         <v>30</v>
@@ -16768,7 +16768,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>67</v>
@@ -16845,7 +16845,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>26</v>
@@ -16922,7 +16922,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>72</v>
@@ -16999,7 +16999,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>26</v>
@@ -17076,7 +17076,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>26</v>
@@ -17085,7 +17085,7 @@
         <v>33</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F190" s="3">
         <v>29</v>
@@ -17153,7 +17153,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>26</v>
@@ -17230,7 +17230,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>26</v>
@@ -17307,7 +17307,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>26</v>
@@ -17384,7 +17384,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>72</v>
@@ -17461,16 +17461,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F195" s="3">
         <v>25</v>
@@ -17538,7 +17538,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>26</v>
@@ -17615,16 +17615,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F197" s="3">
         <v>30</v>
@@ -17692,7 +17692,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>26</v>
@@ -17769,7 +17769,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>26</v>
@@ -17846,7 +17846,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>26</v>
@@ -17923,7 +17923,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>106</v>
@@ -18000,7 +18000,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>113</v>
@@ -18077,10 +18077,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C203" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>54</v>
@@ -18154,7 +18154,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>67</v>
@@ -18231,7 +18231,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>26</v>
@@ -18308,7 +18308,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>26</v>
@@ -18385,7 +18385,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>26</v>
@@ -18462,7 +18462,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>26</v>
@@ -18539,7 +18539,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>72</v>
@@ -18616,7 +18616,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>26</v>
@@ -18693,7 +18693,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>64</v>
@@ -18770,10 +18770,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>86</v>
@@ -18847,7 +18847,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>26</v>
@@ -18924,7 +18924,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>26</v>
@@ -19001,7 +19001,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>113</v>
@@ -19078,10 +19078,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>54</v>
@@ -19155,7 +19155,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>26</v>
@@ -19232,7 +19232,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>26</v>
@@ -19299,7 +19299,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>26</v>
@@ -19308,7 +19308,7 @@
         <v>54</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F219" s="3">
         <v>25</v>
@@ -19376,7 +19376,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>26</v>
@@ -19453,13 +19453,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>60</v>
@@ -19530,7 +19530,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>113</v>
@@ -19607,10 +19607,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>54</v>
@@ -19684,7 +19684,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>26</v>
@@ -19759,7 +19759,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>26</v>
@@ -19836,7 +19836,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>67</v>
@@ -19913,7 +19913,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>26</v>
@@ -19980,7 +19980,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>26</v>
@@ -20057,7 +20057,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>26</v>
@@ -20134,7 +20134,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>26</v>
@@ -20143,7 +20143,7 @@
         <v>54</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F230" s="3">
         <v>28</v>
@@ -20211,10 +20211,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>54</v>
@@ -20288,7 +20288,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>26</v>
@@ -20365,7 +20365,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>72</v>
@@ -20442,7 +20442,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>72</v>
@@ -20517,10 +20517,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>33</v>
@@ -20594,7 +20594,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>26</v>
@@ -20671,10 +20671,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>54</v>
@@ -20746,7 +20746,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>67</v>
@@ -20823,10 +20823,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C239" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>36</v>
@@ -20900,7 +20900,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>26</v>
@@ -20977,7 +20977,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>26</v>
@@ -21054,10 +21054,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>86</v>
@@ -21131,7 +21131,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>26</v>
@@ -21208,7 +21208,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>26</v>
@@ -21285,7 +21285,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>26</v>
@@ -21362,7 +21362,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>26</v>
@@ -21439,7 +21439,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>26</v>
@@ -21516,7 +21516,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>67</v>
@@ -21593,7 +21593,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>113</v>
@@ -21670,7 +21670,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>26</v>
@@ -21747,16 +21747,16 @@
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C251" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F251" s="3">
         <v>22</v>
@@ -21824,10 +21824,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C252" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>342</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>33</v>
@@ -21901,7 +21901,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>26</v>
@@ -21978,7 +21978,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>26</v>
@@ -22055,16 +22055,16 @@
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F255" s="3">
         <v>22</v>
@@ -22132,7 +22132,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>52</v>
@@ -22209,7 +22209,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>26</v>
@@ -22284,7 +22284,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>26</v>
@@ -22361,7 +22361,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>74</v>
@@ -22438,7 +22438,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>26</v>
@@ -22515,10 +22515,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>54</v>
@@ -22592,7 +22592,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>26</v>
@@ -22669,7 +22669,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>26</v>
@@ -22746,7 +22746,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>26</v>
@@ -22823,7 +22823,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>26</v>
@@ -22900,7 +22900,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>26</v>
@@ -22909,7 +22909,7 @@
         <v>54</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F266" s="3">
         <v>31</v>
@@ -22977,7 +22977,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>74</v>
@@ -23052,7 +23052,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>26</v>
@@ -23119,7 +23119,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>26</v>
@@ -23194,7 +23194,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>74</v>
@@ -23271,7 +23271,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>26</v>
@@ -23348,7 +23348,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>26</v>
@@ -23357,7 +23357,7 @@
         <v>54</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F272" s="3">
         <v>25</v>
@@ -23425,7 +23425,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>74</v>
@@ -23502,7 +23502,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>106</v>
@@ -23511,7 +23511,7 @@
         <v>54</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F274" s="3">
         <v>29</v>
@@ -23579,7 +23579,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>113</v>
@@ -23656,7 +23656,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>64</v>
@@ -23733,7 +23733,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>26</v>
@@ -23810,7 +23810,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>26</v>
@@ -23887,10 +23887,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>36</v>
@@ -23964,7 +23964,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>26</v>
@@ -24041,16 +24041,16 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F281" s="3">
         <v>23</v>
@@ -24118,7 +24118,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>26</v>
@@ -24195,7 +24195,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>113</v>
@@ -24204,7 +24204,7 @@
         <v>36</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F283" s="3">
         <v>28</v>
@@ -24272,7 +24272,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>59</v>
@@ -24349,7 +24349,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>26</v>
@@ -24426,7 +24426,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>26</v>
@@ -24503,7 +24503,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>113</v>
@@ -24512,7 +24512,7 @@
         <v>33</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F287" s="3">
         <v>25</v>
@@ -24580,7 +24580,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>26</v>
@@ -24655,7 +24655,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>26</v>
@@ -24732,7 +24732,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>26</v>
@@ -24809,7 +24809,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>74</v>
@@ -24886,7 +24886,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>74</v>
@@ -24963,7 +24963,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>26</v>
@@ -25030,7 +25030,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>82</v>
@@ -25107,7 +25107,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>26</v>
@@ -25184,7 +25184,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>26</v>
@@ -25259,7 +25259,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>109</v>
@@ -25336,7 +25336,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>113</v>
@@ -25413,7 +25413,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>67</v>
@@ -25490,7 +25490,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>26</v>
@@ -25565,7 +25565,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>113</v>
@@ -25642,10 +25642,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C302" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="D302" s="3" t="s">
         <v>86</v>
@@ -25719,13 +25719,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E303" s="3" t="s">
         <v>50</v>
@@ -25796,7 +25796,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>26</v>
@@ -25805,7 +25805,7 @@
         <v>54</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F304" s="3">
         <v>26</v>
@@ -25873,10 +25873,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>33</v>
@@ -25950,7 +25950,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>82</v>
@@ -26027,7 +26027,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>26</v>
@@ -26104,7 +26104,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>26</v>
@@ -26181,7 +26181,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>26</v>
@@ -26248,13 +26248,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E310" s="3" t="s">
         <v>62</v>
@@ -26323,13 +26323,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E311" s="3" t="s">
         <v>48</v>
@@ -26400,7 +26400,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>74</v>
@@ -26477,7 +26477,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>113</v>
@@ -26554,7 +26554,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>26</v>
@@ -26631,7 +26631,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>26</v>
@@ -26708,7 +26708,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>74</v>
@@ -26791,7 +26791,7 @@
         <v>26</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E317" s="3" t="s">
         <v>62</v>
@@ -26862,7 +26862,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>26</v>
@@ -26939,7 +26939,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>26</v>
@@ -26948,7 +26948,7 @@
         <v>27</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F319" s="3">
         <v>21</v>
@@ -27016,10 +27016,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>36</v>
@@ -27093,7 +27093,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>26</v>
@@ -27160,7 +27160,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>26</v>
@@ -27237,7 +27237,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>26</v>
@@ -27246,7 +27246,7 @@
         <v>33</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F323" s="3">
         <v>23</v>
@@ -27312,7 +27312,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>26</v>
@@ -27389,7 +27389,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>67</v>
@@ -27456,7 +27456,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>26</v>
@@ -27531,7 +27531,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>113</v>
@@ -27608,7 +27608,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>26</v>
@@ -27685,10 +27685,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C329" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>421</v>
       </c>
       <c r="D329" s="3" t="s">
         <v>56</v>
@@ -27762,7 +27762,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>26</v>
@@ -27839,7 +27839,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>67</v>
@@ -27916,7 +27916,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>26</v>
@@ -27993,7 +27993,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>64</v>
@@ -28070,7 +28070,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>26</v>
@@ -28147,10 +28147,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>86</v>
@@ -28224,7 +28224,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>26</v>
@@ -28301,7 +28301,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>26</v>
@@ -28378,7 +28378,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>26</v>
@@ -28455,7 +28455,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>72</v>
@@ -28532,7 +28532,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>26</v>
@@ -28609,7 +28609,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>26</v>
@@ -28618,7 +28618,7 @@
         <v>56</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F341" s="3">
         <v>29</v>
@@ -28686,7 +28686,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>26</v>
@@ -28695,7 +28695,7 @@
         <v>33</v>
       </c>
       <c r="E342" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F342" s="3">
         <v>22</v>
@@ -28761,7 +28761,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>64</v>
@@ -28836,7 +28836,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>26</v>
@@ -28913,7 +28913,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>26</v>
@@ -28922,7 +28922,7 @@
         <v>56</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F345" s="3">
         <v>29</v>
@@ -28990,7 +28990,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>72</v>
@@ -29065,7 +29065,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>59</v>
@@ -29142,7 +29142,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>26</v>
@@ -29151,7 +29151,7 @@
         <v>36</v>
       </c>
       <c r="E348" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F348" s="3">
         <v>29</v>
@@ -29219,7 +29219,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>26</v>
@@ -29296,10 +29296,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>36</v>
@@ -29373,7 +29373,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>26</v>
@@ -29382,7 +29382,7 @@
         <v>27</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F351" s="3">
         <v>33</v>
@@ -29448,7 +29448,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>59</v>
@@ -29457,7 +29457,7 @@
         <v>54</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F352" s="3">
         <v>30</v>
@@ -29523,7 +29523,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>26</v>
@@ -29600,7 +29600,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>26</v>
@@ -29677,7 +29677,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>67</v>
@@ -29686,7 +29686,7 @@
         <v>54</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F355" s="3">
         <v>26</v>
@@ -29752,7 +29752,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>26</v>
@@ -29829,10 +29829,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C357" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>449</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>33</v>
@@ -29906,10 +29906,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>36</v>
@@ -29983,7 +29983,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>26</v>
@@ -30060,13 +30060,13 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E360" s="3" t="s">
         <v>62</v>
@@ -30135,7 +30135,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>26</v>
@@ -30212,7 +30212,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>26</v>
@@ -30287,7 +30287,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>26</v>
@@ -30362,7 +30362,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>26</v>
@@ -30439,7 +30439,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>26</v>
@@ -30506,10 +30506,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D366" s="3" t="s">
         <v>54</v>
@@ -30583,7 +30583,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>26</v>
@@ -30660,7 +30660,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>26</v>
@@ -30737,10 +30737,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D369" s="3" t="s">
         <v>86</v>
@@ -30814,7 +30814,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>26</v>
@@ -30891,7 +30891,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>26</v>
@@ -30968,7 +30968,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>67</v>
@@ -31043,7 +31043,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>64</v>
@@ -31120,7 +31120,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>26</v>
@@ -31195,7 +31195,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>82</v>
@@ -31272,7 +31272,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>26</v>
@@ -31347,13 +31347,13 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E377" s="3" t="s">
         <v>89</v>
@@ -31422,10 +31422,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>54</v>
@@ -31497,7 +31497,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>74</v>
@@ -31574,10 +31574,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>54</v>
@@ -31651,7 +31651,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>113</v>
@@ -31728,7 +31728,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>26</v>
@@ -31737,7 +31737,7 @@
         <v>56</v>
       </c>
       <c r="E382" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F382" s="3">
         <v>18</v>
@@ -31805,7 +31805,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>26</v>
@@ -31880,7 +31880,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>26</v>
@@ -31889,7 +31889,7 @@
         <v>56</v>
       </c>
       <c r="E384" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F384" s="3">
         <v>18</v>
@@ -31957,7 +31957,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>72</v>
@@ -32034,7 +32034,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>26</v>
@@ -32111,7 +32111,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>26</v>
@@ -32188,13 +32188,13 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E388" s="3" t="s">
         <v>89</v>
@@ -32263,16 +32263,16 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D389" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F389" s="3">
         <v>25</v>
@@ -32340,7 +32340,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>26</v>
@@ -32407,7 +32407,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>26</v>
@@ -32484,7 +32484,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>26</v>
@@ -32559,7 +32559,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>26</v>
@@ -32636,10 +32636,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D394" s="3" t="s">
         <v>27</v>
@@ -32703,7 +32703,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>26</v>
@@ -32770,7 +32770,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>26</v>
@@ -32845,10 +32845,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C397" s="3" t="s">
         <v>489</v>
-      </c>
-      <c r="C397" s="3" t="s">
-        <v>490</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>33</v>
@@ -32922,7 +32922,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>26</v>
@@ -32999,7 +32999,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>26</v>
@@ -33074,7 +33074,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>26</v>
@@ -33151,7 +33151,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>26</v>
@@ -33228,7 +33228,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>26</v>
@@ -33305,13 +33305,13 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E403" s="3" t="s">
         <v>97</v>
@@ -33382,7 +33382,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>26</v>
@@ -33457,7 +33457,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>26</v>
@@ -33534,10 +33534,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D406" s="3" t="s">
         <v>33</v>
@@ -33611,7 +33611,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>113</v>
@@ -33686,7 +33686,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>109</v>
@@ -33763,10 +33763,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C409" s="3" t="s">
         <v>502</v>
-      </c>
-      <c r="C409" s="3" t="s">
-        <v>503</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>56</v>
@@ -33840,7 +33840,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>26</v>
@@ -33917,7 +33917,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>26</v>
@@ -33994,7 +33994,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>59</v>
@@ -34071,7 +34071,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>64</v>
@@ -34138,7 +34138,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>26</v>
@@ -34205,10 +34205,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>54</v>
@@ -34282,7 +34282,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>26</v>
@@ -34359,10 +34359,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>86</v>
@@ -34436,7 +34436,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>26</v>
@@ -34513,10 +34513,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>54</v>
@@ -34590,7 +34590,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>26</v>
@@ -34667,7 +34667,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>26</v>
@@ -34744,7 +34744,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>26</v>
@@ -34821,7 +34821,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>26</v>
@@ -34898,13 +34898,13 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E424" s="3" t="s">
         <v>37</v>
@@ -34965,7 +34965,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>26</v>
@@ -35042,7 +35042,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>67</v>
@@ -35109,13 +35109,13 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E427" s="3" t="s">
         <v>65</v>
@@ -35186,7 +35186,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>67</v>
@@ -35263,7 +35263,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>26</v>
@@ -35330,10 +35330,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C430" s="3" t="s">
         <v>522</v>
-      </c>
-      <c r="C430" s="3" t="s">
-        <v>523</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>86</v>
@@ -35407,7 +35407,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>26</v>
@@ -35484,10 +35484,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D432" s="3" t="s">
         <v>33</v>
@@ -35551,7 +35551,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>109</v>
@@ -35628,7 +35628,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>26</v>
@@ -35703,7 +35703,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>26</v>
@@ -35778,7 +35778,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>26</v>
@@ -35787,7 +35787,7 @@
         <v>56</v>
       </c>
       <c r="E436" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F436" s="3">
         <v>24</v>
@@ -35855,7 +35855,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>26</v>
@@ -35932,10 +35932,10 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D438" s="3" t="s">
         <v>54</v>
@@ -36009,7 +36009,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>26</v>
@@ -36086,7 +36086,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>26</v>
@@ -36153,7 +36153,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>26</v>
@@ -36230,7 +36230,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>26</v>
@@ -36239,7 +36239,7 @@
         <v>54</v>
       </c>
       <c r="E442" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F442" s="3">
         <v>22</v>
@@ -36305,7 +36305,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>26</v>
@@ -36380,7 +36380,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>26</v>
@@ -36455,7 +36455,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>26</v>
@@ -36532,7 +36532,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>26</v>
@@ -36599,7 +36599,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>72</v>
@@ -36674,7 +36674,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>67</v>
@@ -36751,7 +36751,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>26</v>
@@ -36818,7 +36818,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>26</v>
@@ -36827,7 +36827,7 @@
         <v>27</v>
       </c>
       <c r="E450" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F450" s="3">
         <v>22</v>
@@ -36885,7 +36885,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>26</v>
@@ -36952,7 +36952,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>64</v>
@@ -37027,7 +37027,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>26</v>
@@ -37104,7 +37104,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>26</v>
@@ -37171,7 +37171,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>26</v>
@@ -37248,7 +37248,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>26</v>
@@ -37325,7 +37325,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>26</v>
@@ -37392,7 +37392,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>26</v>
@@ -37526,7 +37526,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>26</v>
@@ -37593,7 +37593,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>26</v>
@@ -37670,7 +37670,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>72</v>
@@ -37745,13 +37745,13 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E463" s="3" t="s">
         <v>65</v>
@@ -37820,7 +37820,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>26</v>
@@ -37897,7 +37897,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>26</v>
@@ -37906,7 +37906,7 @@
         <v>33</v>
       </c>
       <c r="E465" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F465" s="3">
         <v>21</v>
@@ -37964,10 +37964,10 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D466" s="3" t="s">
         <v>36</v>
@@ -38041,7 +38041,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>26</v>
@@ -38116,7 +38116,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>26</v>
@@ -38125,7 +38125,7 @@
         <v>33</v>
       </c>
       <c r="E468" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F468" s="3">
         <v>24</v>
@@ -38191,7 +38191,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>26</v>
@@ -38268,7 +38268,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>26</v>
@@ -38345,7 +38345,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>113</v>
@@ -38420,7 +38420,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>74</v>
@@ -38497,10 +38497,10 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D473" s="3" t="s">
         <v>54</v>
@@ -38572,7 +38572,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>26</v>
@@ -38647,10 +38647,10 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D475" s="3" t="s">
         <v>56</v>
@@ -38722,7 +38722,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>74</v>
@@ -38799,7 +38799,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>26</v>
@@ -38866,7 +38866,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>26</v>
@@ -38933,7 +38933,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>26</v>
@@ -38942,7 +38942,7 @@
         <v>56</v>
       </c>
       <c r="E479" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F479" s="3">
         <v>21</v>
@@ -39010,10 +39010,10 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D480" s="3" t="s">
         <v>33</v>
@@ -39085,7 +39085,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>26</v>
@@ -39162,7 +39162,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>26</v>
@@ -39229,7 +39229,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>74</v>
@@ -39296,7 +39296,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>26</v>
@@ -39363,7 +39363,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>26</v>
@@ -39430,7 +39430,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>26</v>
@@ -39507,7 +39507,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>26</v>
@@ -39574,7 +39574,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>26</v>
@@ -39651,7 +39651,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>26</v>
@@ -39718,7 +39718,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>26</v>
@@ -39795,7 +39795,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>67</v>
@@ -39870,7 +39870,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>74</v>
@@ -39945,7 +39945,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>26</v>
@@ -40022,16 +40022,16 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C494" s="3" t="s">
         <v>578</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>579</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E494" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F494" s="3">
         <v>19</v>
@@ -40089,7 +40089,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>26</v>
@@ -40166,7 +40166,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>26</v>
@@ -40233,7 +40233,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>64</v>
@@ -40310,7 +40310,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>26</v>
@@ -40377,7 +40377,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>26</v>
@@ -40444,7 +40444,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>26</v>
@@ -40453,7 +40453,7 @@
         <v>36</v>
       </c>
       <c r="E500" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F500" s="3">
         <v>18</v>
